--- a/WebService_Api_Test/datas/excel_open_2.xlsx
+++ b/WebService_Api_Test/datas/excel_open_2.xlsx
@@ -1,13 +1,39 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="11" autoFilterDateGrouping="1" firstSheet="6" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11020" windowWidth="28300"/>
+  </bookViews>
+  <sheets>
+    <sheet name="加法" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="减法" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="乘法" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="除法" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="注册" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="登录" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="充值" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="加标" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="投资" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="send_message" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="user_register" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="user_auth" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="创建批次" sheetId="13" state="hidden" r:id="rId13"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -30,12 +56,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Source Code Pro"/>
-      <charset val="134"/>
-      <color rgb="FFA9B7C6"/>
-      <sz val="11.3"/>
-    </font>
-    <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
       <color theme="1"/>
@@ -50,21 +70,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="10.5"/>
+    </font>
+    <font>
+      <name val="Source Code Pro"/>
+      <charset val="134"/>
+      <color rgb="FFA9B7C6"/>
+      <sz val="11.3"/>
+    </font>
+    <font>
       <name val="Menlo"/>
       <charset val="134"/>
       <color rgb="FF000000"/>
       <sz val="9.75"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="10.5"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -78,7 +134,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -86,43 +142,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -132,22 +152,6 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,8 +173,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -186,14 +189,44 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -213,12 +246,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -231,25 +258,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +288,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,13 +378,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,85 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,6 +431,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -412,6 +454,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,21 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -463,192 +531,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="8" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="10" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="26" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="25" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="15" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="10" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="20" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="19" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="25" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,81 +692,90 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="41">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="1"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="2"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="3"/>
+    <cellStyle builtinId="20" name="输入" xfId="4"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="5"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="4" name="货币" xfId="7"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="8"/>
+    <cellStyle builtinId="5" name="百分比" xfId="9"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="10"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="11"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="12"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="13"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="14"/>
+    <cellStyle builtinId="22" name="计算" xfId="15"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="16"/>
+    <cellStyle builtinId="28" name="适中" xfId="17"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="18"/>
+    <cellStyle builtinId="26" name="好" xfId="19"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="20"/>
+    <cellStyle builtinId="25" name="汇总" xfId="21"/>
+    <cellStyle builtinId="27" name="差" xfId="22"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="23"/>
     <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="25"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="26"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="27"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="28"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="29"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="30"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="31"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="32"/>
+    <cellStyle builtinId="15" name="标题" xfId="33"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="34"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="35"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="36"/>
+    <cellStyle builtinId="10" name="注释" xfId="37"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="38"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="39"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="40"/>
+    <cellStyle builtinId="8" name="超链接" xfId="41"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="42"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="43"/>
     <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="45"/>
     <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="47"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1023,8 +1065,2507 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" style="1" width="18.625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="12.75"/>
+    <col customWidth="1" max="4" min="4" style="1" width="11.625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="10.625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="17.25"/>
+    <col customWidth="1" max="7" min="7" style="13" width="21.125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>i_data</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>r_data</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="14" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>负数与负数相加</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F2" s="0" t="n"/>
+      <c r="G2" s="14" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>负数与正数相加</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n"/>
+      <c r="G3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>零与零相加</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n"/>
+      <c r="G4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>正数与正数相加</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="n"/>
+      <c r="G5" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>正数与负数相加</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="n"/>
+      <c r="G6" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="1" width="24.75"/>
+    <col customWidth="1" max="3" min="3" style="1" width="62.8173076923077"/>
+    <col customWidth="1" max="4" min="4" style="1" width="26.25"/>
+    <col customWidth="1" max="5" min="5" style="1" width="71.7884615384615"/>
+    <col customWidth="1" max="6" min="6" style="1" width="29.75"/>
+    <col customWidth="1" max="7" min="7" style="1" width="22.375"/>
+    <col customWidth="1" max="8" min="8" style="1" width="9.125"/>
+    <col customWidth="1" max="9" min="9" style="1" width="6.375"/>
+    <col customWidth="1" max="10" min="10" style="1" width="15.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="2" s="1">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>正确手机号码发送信息</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>sendMCode</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>{"client_ip": "172.1.1.1", "tmpl_id": "1", "mobile": "#random_mobile#"}</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="3" s="1">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>格式错误的手机号码发送信息</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>sendMCode</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>{"client_ip": "172.1.1.1", "tmpl_id": "2", "mobile": "#random_mobile#2"}</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>手机号码错误</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>手机号码错误</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="4" s="1">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>短信模板不为1</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>sendMCode</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>{"client_ip": "172.1.1.1", "tmpl_id": "3", "mobile": "#random_mobile#"}</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>短信模板配置错误</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>短信模板配置错误</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="5" s="1">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>ip为空</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>sendMCode</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>{"client_ip": "", "tmpl_id": "1", "mobile": "#random_mobile#"}</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>用户IP不能为空</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>用户IP不能为空</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="6" s="1">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>模板为空</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>sendMCode</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>{"client_ip": "172.1.1.1", "tmpl_id": "3", "mobile": "#random_mobile#"}</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>短信模板配置错误</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>短信模板配置错误</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="7" s="1">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>手机号码为空</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>sendMCode</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>{"client_ip": "172.1.1.1", "tmpl_id": "3", "mobile": ""}</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>手机号码错误</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>手机号码错误</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" ref="C2" r:id="rId1"/>
+    <hyperlink display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" ref="C3" r:id="rId2"/>
+    <hyperlink display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" ref="C4" r:id="rId3"/>
+    <hyperlink display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" ref="C5" r:id="rId4"/>
+    <hyperlink display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" ref="C6" r:id="rId5"/>
+    <hyperlink display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" ref="C7" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="1" width="24.75"/>
+    <col customWidth="1" max="3" min="3" style="1" width="85.875"/>
+    <col customWidth="1" max="4" min="4" style="1" width="16.5"/>
+    <col customWidth="1" max="5" min="5" style="1" width="141.182692307692"/>
+    <col customWidth="1" max="6" min="6" style="1" width="29.75"/>
+    <col customWidth="1" max="7" min="7" style="1" width="46.625"/>
+    <col customWidth="1" max="8" min="8" style="1" width="9.125"/>
+    <col customWidth="1" max="9" min="9" style="1" width="107.846153846154"/>
+    <col customWidth="1" max="10" min="10" style="1" width="15.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>成功发送短信验证码</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>sendMCode</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>{"client_ip": "172.1.1.1", "tmpl_id": "1", "mobile": "#random_mobile#"}</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>select Fverify_code from sms_db_#end_two_num#.t_mvcode_info_#third_num# where Fmobile_no = #sql_mobile#</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="3" s="1">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>手机号错误</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>{"verify_code":"1233321","user_id":"#random_name#","channel_id":"2","pwd":"#pwd#","mobile":"#random_mobile#2","ip":"172.1.1.1"}</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>手机号错误</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 19001, 'retInfo': 手机号错误}</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="4" s="1">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>注册名称为空</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>{"verify_code":"#mes_code#","user_id":"","channel_id":"2","pwd":"#pwd#","mobile":"#mobile#","ip":"172.1.1.1"}</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>用户名错误</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 19001, 'retInfo': 用户名错误}</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="5" s="1">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>渠道信息不正确</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>{"verify_code":"#mes_code#","user_id":"#random_name#","channel_id":"4","pwd":"#pwd#","mobile":"#mobile#","ip":"172.1.1.1"}</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>渠道信息错误</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 19001, 'retInfo': 渠道信息错误}</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="6" s="1">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>密码为空</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>{"verify_code":"#mes_code#","user_id":"#random_name#","channel_id":"2","pwd":"","mobile":"#mobile#","ip":"172.1.1.1"}</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>用户UID错误</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 19001, 'retInfo': 用户UID错误}</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="7" s="1">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>IP为空</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>{"verify_code":"#mes_code#","user_id":"#random_name#","channel_id":"2","pwd":"#pwd#","mobile":"#mobile#","ip":""}</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>IP地址错误</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 19001, 'retInfo': IP地址错误}</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>手机号码不正确</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>{"verify_code":"#mes_code#","user_id":"#random_name#","channel_id":"2","pwd":"#pwd#","mobile":"#error_mobile#","ip":"172.1.1.1"}</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>手机号错误</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 19001, 'retInfo': 手机号错误}</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="9" s="1">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>成功注册</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>{"verify_code":"#mes_code#","user_id":"#random_name#","channel_id":"2","pwd":"#pwd#","mobile":"#sql_mobile#","ip":"172.1.1.1"}</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>重复注册</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>{"verify_code":"#mes_code#","user_id":"#random_name#","channel_id":"2","pwd":"#pwd#","mobile":"#sql_mobile#","ip":"172.1.1.1"}</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>用户已存在</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 20042003, 'retInfo': 该用户已存在}</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" ref="C2" r:id="rId1"/>
+    <hyperlink display="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="C3" tooltip="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" r:id="rId2"/>
+    <hyperlink display="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="C4" tooltip="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" r:id="rId3"/>
+    <hyperlink display="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="C5" tooltip="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" r:id="rId4"/>
+    <hyperlink display="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="C6" tooltip="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" r:id="rId5"/>
+    <hyperlink display="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="C7" tooltip="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" r:id="rId6"/>
+    <hyperlink display="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="C8" tooltip="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" r:id="rId7"/>
+    <hyperlink display="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="C9" tooltip="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" r:id="rId8"/>
+    <hyperlink display="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="C10" tooltip="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="3" min="2" style="1" width="24.75"/>
+    <col customWidth="1" max="4" min="4" style="1" width="85.875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="138.461538461538"/>
+    <col customWidth="1" max="6" min="6" style="1" width="29.75"/>
+    <col customWidth="1" max="7" min="7" style="1" width="40.2211538461538"/>
+    <col customWidth="1" max="8" min="8" style="1" width="9.125"/>
+    <col customWidth="1" max="9" min="9" style="1" width="111.048076923077"/>
+    <col customWidth="1" max="10" min="10" style="1" width="15.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>成功发送验证码</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>sendMCode</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>{"client_ip": "172.1.1.1", "tmpl_id": "1", "mobile": "#random_mobile#"}</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>select Fverify_code from sms_db_#end_two_num#.t_mvcode_info_#third_num# where Fmobile_no = "#sql_mobile#"</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>成功注册</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>{"verify_code":"#mes_code#","user_id":"#random_name#","channel_id":"2","pwd":"#pwd#","mobile":"#sql_mobile#","ip":"172.1.1.1"}</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 20042003, 'retInfo': 该用户已存在}</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>select Fuid from user_db.t_user_info where Fuser_id = "#exit_name#"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="4" s="1">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>成功实名认证</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>verifyUserAuth</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>{"uid":"#uid#","true_name":"#random_true_name#","cre_id":"#cre_id#"}</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 19001, 'retInfo': 真实姓名错误}</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="5" s="1">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>uid为空</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>verifyUserAuth</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>{"uid":"","true_name":"#random_true_name#","cre_id":"#cre_id#"}</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>姓名错误</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unmarshalling Error: For input string: "" </t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="6" s="1">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>true_name为空</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>verifyUserAuth</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>{"uid":"#uid#","true_name":"","cre_id":"#cre_id#"}</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>姓名错误</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 19001, 'retInfo': 真实姓名错误}</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="7" s="1">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>cre_id为空</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>verifyUserAuth</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>{"uid":"#uid#","true_name":"#random_true_name#","cre_id":""}</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>用户CRE_ID错误</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>{'retCode': 19001, 'retInfo': 真实姓名错误}</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" ref="D2" r:id="rId1"/>
+    <hyperlink display="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="D3" tooltip="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" r:id="rId2"/>
+    <hyperlink display="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="D4" tooltip="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" r:id="rId3"/>
+    <hyperlink display="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="D5" tooltip="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" r:id="rId4"/>
+    <hyperlink display="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="D6" tooltip="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" r:id="rId5"/>
+    <hyperlink display="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="D7" tooltip="http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="8.25"/>
+    <col customWidth="1" max="2" min="2" style="1" width="18.625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="10.625"/>
+    <col customWidth="1" max="4" min="4" style="1" width="31.25"/>
+    <col customWidth="1" max="5" min="5" style="1" width="35.5"/>
+    <col customWidth="1" max="6" min="6" style="1" width="16"/>
+    <col customWidth="1" max="7" min="7" style="1" width="15.625"/>
+    <col customWidth="1" max="8" min="8" style="1" width="17.875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" style="1" width="18.125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>i_data</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>r_data</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>负数与负数相减</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>负数与正数相减</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>零与零相减</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>正数与正数相减</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>正数与负数相减</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" style="1" width="22"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>i_data</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>r_data</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>负数与负数相乘</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>负数与正数相乘</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>-12</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>-12</v>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>零与零相乘</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>正数与正数相乘</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>正数与负数相乘</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>-26</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>-26</v>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" style="1" width="19.875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="19.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>i_data</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>r_data</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>负数与负数相除</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>负数与正数相除</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>零与零相除</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>被除数不能为2</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>被除数不能为0</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>被除数不能为0</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>正数与正数相除</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>正数与负数相除</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" style="1" width="22.5"/>
+    <col customWidth="1" max="3" min="3" style="1" width="6.75"/>
+    <col customWidth="1" max="4" min="4" style="1" width="26.25"/>
+    <col customWidth="1" max="5" min="5" style="1" width="78.25"/>
+    <col customWidth="1" max="6" min="6" style="1" width="20.25"/>
+    <col customWidth="1" max="7" min="7" style="1" width="36.125"/>
+    <col customWidth="1" max="8" min="8" style="1" width="9.125"/>
+    <col customWidth="1" max="9" min="9" style="1" width="6.375"/>
+    <col customWidth="1" max="10" min="10" style="1" width="15.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>未注册过得手机号码注册</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "#not_exit_tel#", "pwd": "yx201308", "regname": "yuxiang"}</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>注册成功</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>注册成功</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>已注册过手机号码</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "#invest_tel#", "pwd": "yx201308", "regname": "yuxiang"}</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>手机号码已被注册</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>手机号码已被注册</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>手机号码不是11位</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "156272727272", "pwd": "yx201308", "regname": "yuxiang"}</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>手机号码格式不正确</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>手机号码格式不正确</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>号码为空</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "", "pwd": "yx201308", "regname": "yuxiang"}</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>手机号不能为空</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>手机号不能为空</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>密码为空</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "#not_exit_tel#", "pwd": "", "regname": "yuxiang"}</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>密码不能为空</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>密码不能为空</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>号码和密码都为空</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "", "pwd": "", "regname": "yuxiang"}</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>手机号不能为空</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>手机号不能为空</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>错误的手机号码</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "11029282278", "pwd": "yx201308", "regname": "yuxiang"}</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>手机号码格式不正确</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>手机号码格式不正确</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="/member/register" ref="D2" tooltip="http://tj.lemonban.com:8080/futureloan/mvc/api/member/register" r:id="rId1"/>
+    <hyperlink display="/member/register" ref="D8" tooltip="http://tj.lemonban.com:8080/futureloan/mvc/api/member/register" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="180" orientation="portrait" paperSize="9" verticalDpi="180"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1035,7 +3576,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="23"/>
     <col customWidth="1" max="3" min="3" style="1" width="26.5"/>
@@ -1370,8 +3911,806 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/login" location="" ref="D2" tooltip="http://tj.lemonban.com:8080/futureloan/mvc/api/member/login"/>
-    <hyperlink display="/member/login" location="" ref="D8" tooltip="http://tj.lemonban.com:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink display="/member/login" ref="D2" tooltip="http://tj.lemonban.com:8080/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink display="/member/login" ref="D8" tooltip="http://tj.lemonban.com:8080/futureloan/mvc/api/member/login" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="180" orientation="portrait" paperSize="9" verticalDpi="180"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" style="1" width="20.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="20.875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="68.625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="39.75"/>
+    <col customWidth="1" max="7" min="7" style="1" width="32.875"/>
+    <col customWidth="1" max="9" min="9" style="1" width="69.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>正确账号密码登录</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "13625696627", "pwd": "Yx201308"}</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>充值金额在合理范围内</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "#invest_tel#", "amount": "2000"}</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>select LeaveAmount from member where MobilePhone = "#invest_tel#"</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>金额为500万</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "#invest_tel#", "amount": "-1"}</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>20117</v>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>20117</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>金额为0</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "#invest_tel#", "amount": "50000000"}</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>20117</v>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>20117</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>手机号码格式不正确</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D6" s="12" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "1234565432", "amount": "1"}</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>20109</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>20109</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>金额为空</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "#invest_tel#", "amount": ""}</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>20115</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>20115</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>用户不存在</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "#not_exit_tel#", "amount": "2005"}</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>20104</v>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="n"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="/member/login" ref="D2" tooltip="http://tj.lemonban.com:8080/futureloan/mvc/api/member/login" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="180" orientation="portrait" paperSize="9" verticalDpi="180"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" style="1" width="19.75"/>
+    <col customWidth="1" max="4" min="4" style="1" width="14.75"/>
+    <col customWidth="1" max="5" min="5" style="1" width="142"/>
+    <col customWidth="1" max="6" min="6" style="1" width="20.75"/>
+    <col customWidth="1" max="7" min="7" style="1" width="21.875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>正确账号密码登录</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"#admin_mobile#","pwd":"#admin_pwd#"}</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>成功加标</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>{"memberId":"#borrow_id#","title":"旅游去","amount":22000,"loanRate":19,"loanTerm":7,"loanDateType":4,"repaymemtWay":11,"biddingDays":8}</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>加标成功</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>加标成功</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="/member/login" ref="D2" tooltip="http://tj.lemonban.com:8080/futureloan/mvc/api/member/login" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="9"/>
+    <col customWidth="1" max="2" min="2" style="1" width="18.625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="10.125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="16.875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="139.75"/>
+    <col customWidth="1" max="6" min="6" style="1" width="22.875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="17.5"/>
+    <col customWidth="1" max="8" min="8" style="1" width="16.875"/>
+    <col customWidth="1" max="9" min="9" style="1" width="75.125"/>
+    <col customWidth="1" max="16384" min="10" style="1" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>管理员登录</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"#admin_mobile#","pwd":"#admin_pwd#"}</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>管理与加标</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>{"memberId":"#borrow_id#","title":"旅游去002","amount":220000,"loanRate":19,"loanTerm":7,"loanDateType":4,"repaymemtWay":11,"biddingDays":8}</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>加标成功</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>加标成功</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I3" s="11" t="inlineStr">
+        <is>
+          <t>select * from loan where MemberId = "#borrow_id#" order by CreateTime desc limit 0, 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>管理员审核</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>{"id":"#loan_id#", "status":4}</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>更新状态成功：竞标开始，当前标为竞标中状态</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>更新状态成功：竞标开始，当前标为竞标中状态</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>投资人登录</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"#invest_tel#","pwd":"#invest_pwd#"}</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>成功投资</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>{"memberId":#invest_id#,"password":"#invest_pwd#","loanId":"#loan_id#","amount":30000}</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>竞标成功</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>竞标成功</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="/member/login" ref="D2" tooltip="http://tj.lemonban.com:8080/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink display="/loan/add" ref="D3" tooltip="http://tj.lemonban.com:8080/futureloan/mvc/api/member/login" r:id="rId2"/>
+    <hyperlink display="/loan/audit" ref="D4" tooltip="http://tj.lemonban.com:8080/futureloan/mvc/api/member/login" r:id="rId3"/>
+    <hyperlink display="/member/login" ref="D5" tooltip="http://tj.lemonban.com:8080/futureloan/mvc/api/member/login" r:id="rId4"/>
+    <hyperlink display="/member/bidLoan" ref="D6" tooltip="http://tj.lemonban.com:8080/futureloan/mvc/api/member/login" r:id="rId5"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
